--- a/9/cfrp2=3/9_cfrp2=3_SS.xlsx
+++ b/9/cfrp2=3/9_cfrp2=3_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp2=3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA576B-8E82-8C4F-B877-9D119C195238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C878CEF-B055-734E-8B0E-B8FC58B4F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="9_c23_th0.677" sheetId="6" r:id="rId6"/>
     <sheet name="9_c23_th0.79" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -984,6 +987,797 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>9_c23_th0.79</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c23_th0.79'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c23_th0.79'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.78496142857142859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699285714285709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.354885714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1398428571428569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7097714285714289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4947285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2796857142857139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0645857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8494285714285716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6341285714285707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4184714285714293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.20142857142857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.9811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.753385714285709</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.527942857142859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.306985714285711</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.085142857142859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.86228571428571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.64057142857143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.418142857142861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.195285714285721</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.971857142857139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.745571428571431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.51671428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.287285714285709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.05714285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.82771428571429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.596142857142858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.367714285714289</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.138857142857141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.91028571428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.680857142857139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.449000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.215142857142851</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.976142857142861</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.497428571428571</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.254857142857141</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.01014285714286</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.764571428571429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.027142857142863</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.779000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.529714285714277</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.274571428571427</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.01642857142857</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.754571428571431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.487571428571428</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.201571428571427</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40.399857142857137</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.647428571428577</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38.418857142857142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.883571428571429</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.54671428571428</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.529714285714281</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.72428571428571</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.921571428571429</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.18092857142857</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6150857142857156</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.6775142857142864</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.2193428571428573</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6458142857142861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5632285714285712</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2025714285714288</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9208857142857141</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5775857142857139</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3147342857142861</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0917571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.96632714285714283</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.89146142857142852</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.83326857142857147</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.7840785714285714</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.74248142857142863</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.71554000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69317000000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66996857142857136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6551528571428572</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.64143000000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.63008000000000008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.61569428571428564</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.59225714285714282</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57364428571428572</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55611285714285719</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.5462285714285714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.53780857142857141</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.53439428571428571</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53516714285714284</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.53663714285714281</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.53341857142857141</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.53320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52953142857142854</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.51130285714285717</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.50989714285714283</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5057828571428572</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49645571428571428</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48574000000000012</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.47206285714285717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.4611157142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EE8-5348-A8D7-021F50E983F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -1426,6 +2220,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>9_c23_th0.451</a:t>
             </a:r>
           </a:p>
@@ -2104,6 +2899,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2137,6 +2933,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2193,6 +2990,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -2319,6 +3117,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2352,6 +3151,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3414,7 +4214,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_c23_th0.677</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_c23_th0.564</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3428,7 +4229,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln>
@@ -3440,12 +4241,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c23_th0.677'!$C$2:$C$105</c:f>
+              <c:f>'[1]9_c21_th0.564'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -3761,321 +4562,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c23_th0.677'!$D$2:$D$105</c:f>
+              <c:f>'[1]9_c21_th0.564'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>0.71926857142857137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4385428571428569</c:v>
+                  <c:v>1.3616428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1577999999999999</c:v>
+                  <c:v>2.0424571428571432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8770714285714289</c:v>
+                  <c:v>2.7232857142857139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5963428571428571</c:v>
+                  <c:v>3.4041000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3156142857142861</c:v>
+                  <c:v>4.0849285714285717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.034871428571428</c:v>
+                  <c:v>4.7657428571428566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.754142857142857</c:v>
+                  <c:v>5.4465714285714286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4733714285714292</c:v>
+                  <c:v>6.1273857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1924428571428569</c:v>
+                  <c:v>6.8082142857142864</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9113571428571419</c:v>
+                  <c:v>7.4890285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6300428571428558</c:v>
+                  <c:v>8.1698571428571434</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3476428571428585</c:v>
+                  <c:v>8.8506714285714292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.06277142857143</c:v>
+                  <c:v>9.5315000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.771571428571431</c:v>
+                  <c:v>10.212314285714291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.486471428571431</c:v>
+                  <c:v>10.893142857142861</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.201928571428571</c:v>
+                  <c:v>11.57395714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.916914285714279</c:v>
+                  <c:v>12.2545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.632071428571431</c:v>
+                  <c:v>12.93487142857143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.347</c:v>
+                  <c:v>13.61528571428572</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.06128571428571</c:v>
+                  <c:v>14.29542857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.776285714285709</c:v>
+                  <c:v>14.97442857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.48985714285714</c:v>
+                  <c:v>15.653142857142861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.202857142857141</c:v>
+                  <c:v>16.33071428571429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.914571428571431</c:v>
+                  <c:v>17.007000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.62557142857143</c:v>
+                  <c:v>17.679714285714279</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.33614285714286</c:v>
+                  <c:v>18.347999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.045571428571431</c:v>
+                  <c:v>19.004857142857141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.755142857142861</c:v>
+                  <c:v>19.64828571428572</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.46385714285714</c:v>
+                  <c:v>20.273428571428571</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.17257142857143</c:v>
+                  <c:v>20.90585714285714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.882571428571431</c:v>
+                  <c:v>21.53257142857143</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23.593142857142858</c:v>
+                  <c:v>22.138999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24.30328571428571</c:v>
+                  <c:v>22.779142857142858</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.013571428571431</c:v>
+                  <c:v>23.425142857142859</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.723285714285719</c:v>
+                  <c:v>24.070285714285721</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.431428571428569</c:v>
+                  <c:v>24.717571428571429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.13928571428572</c:v>
+                  <c:v>25.36542857142857</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.847428571428569</c:v>
+                  <c:v>26.013000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.555285714285709</c:v>
+                  <c:v>26.66357142857143</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29.260428571428569</c:v>
+                  <c:v>27.312142857142859</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29.960571428571431</c:v>
+                  <c:v>27.95814285714286</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.656857142857142</c:v>
+                  <c:v>28.599142857142859</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>31.347000000000001</c:v>
+                  <c:v>29.24342857142857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.038428571428582</c:v>
+                  <c:v>29.893000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.72871428571429</c:v>
+                  <c:v>30.540285714285719</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.418999999999997</c:v>
+                  <c:v>31.184999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.111428571428583</c:v>
+                  <c:v>31.829142857142859</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>34.805142857142862</c:v>
+                  <c:v>32.466285714285711</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.493428571428574</c:v>
+                  <c:v>33.108714285714292</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>36.185857142857152</c:v>
+                  <c:v>33.726285714285723</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.881285714285717</c:v>
+                  <c:v>34.273285714285713</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.578857142857153</c:v>
+                  <c:v>34.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>38.270857142857153</c:v>
+                  <c:v>34.941571428571429</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38.962857142857153</c:v>
+                  <c:v>34.908428571428573</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.641571428571417</c:v>
+                  <c:v>34.551142857142857</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40.283857142857137</c:v>
+                  <c:v>33.861714285714292</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>40.804000000000002</c:v>
+                  <c:v>32.586285714285722</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.01</c:v>
+                  <c:v>29.460714285714289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40.273714285714277</c:v>
+                  <c:v>24.737285714285711</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38.581000000000003</c:v>
+                  <c:v>15.62757142857143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35.234857142857138</c:v>
+                  <c:v>9.2256714285714292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28.686428571428571</c:v>
+                  <c:v>7.4344999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25.33285714285714</c:v>
+                  <c:v>6.0487571428571432</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21.95371428571428</c:v>
+                  <c:v>4.3375428571428571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.365571428571432</c:v>
+                  <c:v>2.8121142857142858</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.297371428571431</c:v>
+                  <c:v>2.361528571428571</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.5919999999999996</c:v>
+                  <c:v>2.1723571428571429</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.9302571428571431</c:v>
+                  <c:v>2.030985714285714</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.1384285714285709</c:v>
+                  <c:v>1.8978285714285721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.6974999999999998</c:v>
+                  <c:v>1.746585714285714</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3470142857142862</c:v>
+                  <c:v>1.5734571428571431</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.950071428571428</c:v>
+                  <c:v>1.2638557142857141</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.461228571428572</c:v>
+                  <c:v>1.157992857142857</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.273975714285714</c:v>
+                  <c:v>1.0870171428571429</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1095028571428569</c:v>
+                  <c:v>0.99519714285714278</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.021118571428572</c:v>
+                  <c:v>0.90527714285714289</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.94976714285714281</c:v>
+                  <c:v>0.84809000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8895142857142857</c:v>
+                  <c:v>0.79677142857142857</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.83403142857142853</c:v>
+                  <c:v>0.75549428571428567</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.78609285714285715</c:v>
+                  <c:v>0.73273857142857146</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74828857142857141</c:v>
+                  <c:v>0.70210714285714282</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.71952571428571421</c:v>
+                  <c:v>0.68364142857142862</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.68675857142857133</c:v>
+                  <c:v>0.66199857142857144</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.64903857142857135</c:v>
+                  <c:v>0.64025999999999994</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.61988714285714286</c:v>
+                  <c:v>0.61717857142857147</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.59325857142857141</c:v>
+                  <c:v>0.59474714285714292</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.57337571428571421</c:v>
+                  <c:v>0.58576857142857142</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5621328571428571</c:v>
+                  <c:v>0.56785285714285705</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.54886428571428569</c:v>
+                  <c:v>0.55651714285714293</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.54045571428571426</c:v>
+                  <c:v>0.55040428571428579</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.53014428571428573</c:v>
+                  <c:v>0.53761999999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.52499142857142855</c:v>
+                  <c:v>0.52343714285714282</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.51995000000000002</c:v>
+                  <c:v>0.51607142857142863</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.51251999999999998</c:v>
+                  <c:v>0.50963714285714279</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.50190285714285721</c:v>
+                  <c:v>0.50811714285714282</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.50021285714285713</c:v>
+                  <c:v>0.5022428571428571</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.49898571428571431</c:v>
+                  <c:v>0.49661285714285719</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.50001000000000007</c:v>
+                  <c:v>0.49829857142857142</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.49951000000000001</c:v>
+                  <c:v>0.49814142857142862</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.49875428571428571</c:v>
+                  <c:v>0.49597857142857138</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.49736571428571441</c:v>
+                  <c:v>0.49336714285714278</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.49140428571428568</c:v>
+                  <c:v>0.48998000000000003</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.48879428571428568</c:v>
+                  <c:v>0.48570714285714278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,7 +4884,655 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3CC-4447-B03C-384E076F9667}"/>
+              <c16:uniqueId val="{00000004-4E3E-6E47-9F26-CB722FFC01D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c23_th0.564'!$C$2:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c23_th0.564'!$D$2:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0.65562714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.311252857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9668857142857139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2781285714285708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.933757142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5893857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2450142857142863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9006285714285713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5561428571428566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.211614285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8669428571428579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5219142857142849</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1759714285714278</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8283571428571435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.47904285714286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.131357142857141</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.784828571428569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.438028571428569</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.09135714285714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.74435714285714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.39742857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.05057142857143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.703857142857141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.35642857142857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.008285714285709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.659285714285719</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.310857142857142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.96257142857143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.612857142857141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.263857142857141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.914857142857141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.566285714285719</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.216714285714289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.866428571428571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.514857142857139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.808857142857139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.456</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.10171428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.748142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.395142857142861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.042428571428569</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.687428571428569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.334571428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.979428571428571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.623571428571431</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.26728571428572</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.910428571428572</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.187571428571431</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.82114285714286</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.456857142857153</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35.089142857142853</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.722428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36.357285714285723</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.995428571428569</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37.632857142857148</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.271857142857137</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38.90457142857143</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.53442857142857</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.147428571428577</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.682857142857152</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.901714285714277</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.05385714285714</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37.691285714285712</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.387428571428568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.472285714285711</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.526714285714281</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.44014285714286</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.19731428571429</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.0802142857142858</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.0519857142857143</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0937571428571431</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.2189285714285711</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5049857142857141</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.7608428571428569</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0550142857142859</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5628</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2795557142857139</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0816271428571429</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.96196428571428583</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.86418571428571433</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.79176714285714278</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.7198485714285715</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.65476428571428569</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60795571428571427</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57177714285714287</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54965714285714284</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53914428571428574</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5298585714285714</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.52000571428571429</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.49814714285714279</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.47556571428571431</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45931285714285708</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45651142857142862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.45395142857142862</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.45087857142857141</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.44576142857142848</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44552142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.44302999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.43579571428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E3E-6E47-9F26-CB722FFC01D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4116,6 +5565,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4149,6 +5599,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -4205,7 +5656,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_c23_th0.677</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4231,10 +5682,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c23_th0.677'!$C$2:$C$10</c:f>
+              <c:f>'9_c23_th0.677'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -4261,16 +5712,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c23_th0.677'!$D$2:$D$10</c:f>
+              <c:f>'9_c23_th0.677'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.71926857142857137</c:v>
                 </c:pt>
@@ -4297,6 +6033,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.4733714285714292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1924428571428569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9113571428571419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6300428571428558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3476428571428585</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.06277142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.771571428571431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.486471428571431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.201928571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.916914285714279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.632071428571431</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.347</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.06128571428571</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.776285714285709</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.48985714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.202857142857141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.914571428571431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.62557142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.33614285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.045571428571431</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.755142857142861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.46385714285714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.17257142857143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.882571428571431</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.593142857142858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.30328571428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.013571428571431</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.723285714285719</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.431428571428569</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.13928571428572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.847428571428569</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.555285714285709</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.260428571428569</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.960571428571431</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.656857142857142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.038428571428582</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.72871428571429</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34.111428571428583</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.805142857142862</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.493428571428574</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.185857142857152</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.881285714285717</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.578857142857153</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38.270857142857153</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38.962857142857153</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.641571428571417</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.283857142857137</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40.273714285714277</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38.581000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.234857142857138</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.686428571428571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.33285714285714</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.95371428571428</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.365571428571432</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.297371428571431</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9302571428571431</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1384285714285709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.6974999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.3470142857142862</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.950071428571428</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.461228571428572</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.273975714285714</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1095028571428569</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.021118571428572</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.94976714285714281</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8895142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83403142857142853</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.78609285714285715</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.74828857142857141</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.71952571428571421</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.68675857142857133</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64903857142857135</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61988714285714286</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59325857142857141</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57337571428571421</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.5621328571428571</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.54886428571428569</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.54045571428571426</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53014428571428573</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52499142857142855</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51995000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51251999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50190285714285721</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.50021285714285713</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49898571428571431</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.50001000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49875428571428571</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49736571428571441</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.49140428571428568</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48879428571428568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,7 +6325,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41A0-EB4E-A541-5077089E7D6B}"/>
+              <c16:uniqueId val="{00000000-F3CC-4447-B03C-384E076F9667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4426,7 +6447,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_c23_th0.79</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4452,10 +6473,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c23_th0.79'!$C$2:$C$105</c:f>
+              <c:f>'9_c23_th0.677'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -4482,612 +6503,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c23_th0.79'!$D$2:$D$105</c:f>
+              <c:f>'9_c23_th0.677'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.78496142857142859</c:v>
+                  <c:v>0.71926857142857137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5699285714285709</c:v>
+                  <c:v>1.4385428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.354885714285714</c:v>
+                  <c:v>2.1577999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1398428571428569</c:v>
+                  <c:v>2.8770714285714289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9247999999999998</c:v>
+                  <c:v>3.5963428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7097714285714289</c:v>
+                  <c:v>4.3156142857142861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4947285714285714</c:v>
+                  <c:v>5.034871428571428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2796857142857139</c:v>
+                  <c:v>5.754142857142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0645857142857142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8494285714285716</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.6341285714285707</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.4184714285714293</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.20142857142857</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.9811</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.753385714285709</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.527942857142859</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.306985714285711</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.085142857142859</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.86228571428571</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.64057142857143</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.418142857142861</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.195285714285721</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.971857142857139</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.745571428571431</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.51671428571429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.287285714285709</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.05714285714286</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.82771428571429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.596142857142858</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.367714285714289</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.138857142857141</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.91028571428571</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25.680857142857139</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26.449000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>27.215142857142851</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27.976142857142861</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28.736000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>29.497428571428571</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.254857142857141</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31.01014285714286</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>31.764571428571429</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.515999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33.274000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>34.027142857142863</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>34.779000000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35.529714285714277</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>36.274571428571427</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>37.01642857142857</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37.754571428571431</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>38.487571428571428</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39.201571428571427</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>39.884999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40.399857142857137</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40.317999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>39.647428571428577</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>38.418857142857142</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>35.883571428571429</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28.54671428571428</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25.529714285714281</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.72428571428571</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>14.921571428571429</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.18092857142857</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.6150857142857156</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.6775142857142864</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.2193428571428573</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.6458142857142861</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.5632285714285712</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.2025714285714288</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.9208857142857141</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.5775857142857139</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.3147342857142861</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.0917571428571431</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.96632714285714283</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.89146142857142852</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.83326857142857147</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.7840785714285714</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.74248142857142863</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.71554000000000006</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.69317000000000006</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.66996857142857136</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.6551528571428572</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.64143000000000006</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.63008000000000008</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.61569428571428564</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.59225714285714282</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.57364428571428572</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.55611285714285719</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.5462285714285714</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.53780857142857141</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.53432000000000002</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.53439428571428571</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.53516714285714284</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.53663714285714281</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.53341857142857141</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.53320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.52953142857142854</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.51819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.51130285714285717</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.50989714285714283</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.5057828571428572</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.49645571428571428</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.48574000000000012</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.47206285714285717</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.4611157142857143</c:v>
+                  <c:v>6.4733714285714292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5095,7 +6546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EE8-5348-A8D7-021F50E983F6}"/>
+              <c16:uniqueId val="{00000000-41A0-EB4E-A541-5077089E7D6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5391,6 +6842,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A8B85B-7842-A84D-AF1D-58BBCDFD0C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5526,6 +7010,864 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="まとめ"/>
+      <sheetName val="9_c21_th0.339"/>
+      <sheetName val="9_c21_th0.451"/>
+      <sheetName val="9_c21_th0.564"/>
+      <sheetName val="9_c21_th0.677"/>
+      <sheetName val="9_c21_th0.79"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>5.0000000000000001E-4</v>
+          </cell>
+          <cell r="D3">
+            <v>1.3616428571428569</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>7.5000000000000002E-4</v>
+          </cell>
+          <cell r="D4">
+            <v>2.0424571428571432</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1E-3</v>
+          </cell>
+          <cell r="D5">
+            <v>2.7232857142857139</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1.25E-3</v>
+          </cell>
+          <cell r="D6">
+            <v>3.4041000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.5E-3</v>
+          </cell>
+          <cell r="D7">
+            <v>4.0849285714285717</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1.75E-3</v>
+          </cell>
+          <cell r="D8">
+            <v>4.7657428571428566</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>2E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>5.4465714285714286</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>2.2499999999999998E-3</v>
+          </cell>
+          <cell r="D10">
+            <v>6.1273857142857144</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="D11">
+            <v>6.8082142857142864</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>2.7499999999999998E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>7.4890285714285714</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="D13">
+            <v>8.1698571428571434</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>3.2499999999999999E-3</v>
+          </cell>
+          <cell r="D14">
+            <v>8.8506714285714292</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>3.5000000000000009E-3</v>
+          </cell>
+          <cell r="D15">
+            <v>9.5315000000000012</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>3.749999999999999E-3</v>
+          </cell>
+          <cell r="D16">
+            <v>10.212314285714291</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="D17">
+            <v>10.893142857142861</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>4.2500000000000003E-3</v>
+          </cell>
+          <cell r="D18">
+            <v>11.57395714285714</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>4.4999999999999997E-3</v>
+          </cell>
+          <cell r="D19">
+            <v>12.2545</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>4.7499999999999999E-3</v>
+          </cell>
+          <cell r="D20">
+            <v>12.93487142857143</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="D21">
+            <v>13.61528571428572</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>5.2500000000000003E-3</v>
+          </cell>
+          <cell r="D22">
+            <v>14.29542857142857</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>5.4999999999999997E-3</v>
+          </cell>
+          <cell r="D23">
+            <v>14.97442857142857</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>5.7499999999999999E-3</v>
+          </cell>
+          <cell r="D24">
+            <v>15.653142857142861</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D25">
+            <v>16.33071428571429</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>6.2500000000000003E-3</v>
+          </cell>
+          <cell r="D26">
+            <v>17.007000000000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>6.5000000000000006E-3</v>
+          </cell>
+          <cell r="D27">
+            <v>17.679714285714279</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>6.7499999999999999E-3</v>
+          </cell>
+          <cell r="D28">
+            <v>18.347999999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>7.000000000000001E-3</v>
+          </cell>
+          <cell r="D29">
+            <v>19.004857142857141</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>7.2500000000000004E-3</v>
+          </cell>
+          <cell r="D30">
+            <v>19.64828571428572</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>7.4999999999999989E-3</v>
+          </cell>
+          <cell r="D31">
+            <v>20.273428571428571</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>7.7499999999999999E-3</v>
+          </cell>
+          <cell r="D32">
+            <v>20.90585714285714</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="D33">
+            <v>21.53257142857143</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>8.2500000000000004E-3</v>
+          </cell>
+          <cell r="D34">
+            <v>22.138999999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>8.5000000000000006E-3</v>
+          </cell>
+          <cell r="D35">
+            <v>22.779142857142858</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>8.7499999999999991E-3</v>
+          </cell>
+          <cell r="D36">
+            <v>23.425142857142859</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>8.9999999999999993E-3</v>
+          </cell>
+          <cell r="D37">
+            <v>24.070285714285721</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>9.2499999999999995E-3</v>
+          </cell>
+          <cell r="D38">
+            <v>24.717571428571429</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>9.4999999999999998E-3</v>
+          </cell>
+          <cell r="D39">
+            <v>25.36542857142857</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>9.7500000000000017E-3</v>
+          </cell>
+          <cell r="D40">
+            <v>26.013000000000002</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>0.01</v>
+          </cell>
+          <cell r="D41">
+            <v>26.66357142857143</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>1.025E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>27.312142857142859</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>1.0500000000000001E-2</v>
+          </cell>
+          <cell r="D43">
+            <v>27.95814285714286</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1.0749999999999999E-2</v>
+          </cell>
+          <cell r="D44">
+            <v>28.599142857142859</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1.0999999999999999E-2</v>
+          </cell>
+          <cell r="D45">
+            <v>29.24342857142857</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>1.125E-2</v>
+          </cell>
+          <cell r="D46">
+            <v>29.893000000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>1.15E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>30.540285714285719</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>1.175E-2</v>
+          </cell>
+          <cell r="D48">
+            <v>31.184999999999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>1.2E-2</v>
+          </cell>
+          <cell r="D49">
+            <v>31.829142857142859</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>1.225E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>32.466285714285711</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>1.2500000000000001E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>33.108714285714292</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>1.2749999999999999E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>33.726285714285723</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2999999999999999E-2</v>
+          </cell>
+          <cell r="D53">
+            <v>34.273285714285713</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>1.325E-2</v>
+          </cell>
+          <cell r="D54">
+            <v>34.726999999999997</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>1.35E-2</v>
+          </cell>
+          <cell r="D55">
+            <v>34.941571428571429</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>1.375E-2</v>
+          </cell>
+          <cell r="D56">
+            <v>34.908428571428573</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>1.4E-2</v>
+          </cell>
+          <cell r="D57">
+            <v>34.551142857142857</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>1.4250000000000001E-2</v>
+          </cell>
+          <cell r="D58">
+            <v>33.861714285714292</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>1.4500000000000001E-2</v>
+          </cell>
+          <cell r="D59">
+            <v>32.586285714285722</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>1.4749999999999999E-2</v>
+          </cell>
+          <cell r="D60">
+            <v>29.460714285714289</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="D61">
+            <v>24.737285714285711</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>1.525E-2</v>
+          </cell>
+          <cell r="D62">
+            <v>15.62757142857143</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>1.55E-2</v>
+          </cell>
+          <cell r="D63">
+            <v>9.2256714285714292</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>1.575E-2</v>
+          </cell>
+          <cell r="D64">
+            <v>7.4344999999999999</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>1.6E-2</v>
+          </cell>
+          <cell r="D65">
+            <v>6.0487571428571432</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>1.6250000000000001E-2</v>
+          </cell>
+          <cell r="D66">
+            <v>4.3375428571428571</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>1.6500000000000001E-2</v>
+          </cell>
+          <cell r="D67">
+            <v>2.8121142857142858</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>1.6750000000000001E-2</v>
+          </cell>
+          <cell r="D68">
+            <v>2.361528571428571</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+          <cell r="D69">
+            <v>2.1723571428571429</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>1.7250000000000001E-2</v>
+          </cell>
+          <cell r="D70">
+            <v>2.030985714285714</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>1.7500000000000002E-2</v>
+          </cell>
+          <cell r="D71">
+            <v>1.8978285714285721</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>1.7749999999999998E-2</v>
+          </cell>
+          <cell r="D72">
+            <v>1.746585714285714</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>1.7999999999999999E-2</v>
+          </cell>
+          <cell r="D73">
+            <v>1.5734571428571431</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>1.8249999999999999E-2</v>
+          </cell>
+          <cell r="D74">
+            <v>1.2638557142857141</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>1.8499999999999999E-2</v>
+          </cell>
+          <cell r="D75">
+            <v>1.157992857142857</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>1.8749999999999999E-2</v>
+          </cell>
+          <cell r="D76">
+            <v>1.0870171428571429</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>1.9E-2</v>
+          </cell>
+          <cell r="D77">
+            <v>0.99519714285714278</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>1.925E-2</v>
+          </cell>
+          <cell r="D78">
+            <v>0.90527714285714289</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>1.95E-2</v>
+          </cell>
+          <cell r="D79">
+            <v>0.84809000000000001</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>1.975E-2</v>
+          </cell>
+          <cell r="D80">
+            <v>0.79677142857142857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>0.02</v>
+          </cell>
+          <cell r="D81">
+            <v>0.75549428571428567</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>2.0250000000000001E-2</v>
+          </cell>
+          <cell r="D82">
+            <v>0.73273857142857146</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>2.0500000000000001E-2</v>
+          </cell>
+          <cell r="D83">
+            <v>0.70210714285714282</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>2.0750000000000001E-2</v>
+          </cell>
+          <cell r="D84">
+            <v>0.68364142857142862</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+          <cell r="D85">
+            <v>0.66199857142857144</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>2.1250000000000002E-2</v>
+          </cell>
+          <cell r="D86">
+            <v>0.64025999999999994</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>2.1499999999999998E-2</v>
+          </cell>
+          <cell r="D87">
+            <v>0.61717857142857147</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>2.1749999999999999E-2</v>
+          </cell>
+          <cell r="D88">
+            <v>0.59474714285714292</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>2.1999999999999999E-2</v>
+          </cell>
+          <cell r="D89">
+            <v>0.58576857142857142</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>2.2249999999999999E-2</v>
+          </cell>
+          <cell r="D90">
+            <v>0.56785285714285705</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>2.2499999999999999E-2</v>
+          </cell>
+          <cell r="D91">
+            <v>0.55651714285714293</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>2.2749999999999999E-2</v>
+          </cell>
+          <cell r="D92">
+            <v>0.55040428571428579</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>2.3E-2</v>
+          </cell>
+          <cell r="D93">
+            <v>0.53761999999999999</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>2.325E-2</v>
+          </cell>
+          <cell r="D94">
+            <v>0.52343714285714282</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>2.35E-2</v>
+          </cell>
+          <cell r="D95">
+            <v>0.51607142857142863</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>2.375E-2</v>
+          </cell>
+          <cell r="D96">
+            <v>0.50963714285714279</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>2.4E-2</v>
+          </cell>
+          <cell r="D97">
+            <v>0.50811714285714282</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>2.4250000000000001E-2</v>
+          </cell>
+          <cell r="D98">
+            <v>0.5022428571428571</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>2.4500000000000001E-2</v>
+          </cell>
+          <cell r="D99">
+            <v>0.49661285714285719</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>2.4750000000000001E-2</v>
+          </cell>
+          <cell r="D100">
+            <v>0.49829857142857142</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>2.4875000000000001E-2</v>
+          </cell>
+          <cell r="D101">
+            <v>0.49814142857142862</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>2.4937500000000001E-2</v>
+          </cell>
+          <cell r="D102">
+            <v>0.49597857142857138</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>2.4962499999999999E-2</v>
+          </cell>
+          <cell r="D103">
+            <v>0.49336714285714278</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>2.498125E-2</v>
+          </cell>
+          <cell r="D104">
+            <v>0.48998000000000003</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="D105">
+            <v>0.48570714285714278</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7408,7 +9750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -8852,7 +11196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
